--- a/data/2019_03_01_spottingForpH/2019_03_01_spottingForpHLB.xlsx
+++ b/data/2019_03_01_spottingForpH/2019_03_01_spottingForpHLB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Shared/data/Jack/SavageLab/excelSheetsWithEquationsAndData/platePicsForTiters/2019_03_01_spottingForpH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Shared/data/Jack/DabTransporterPaper/data/2019_03_01_spottingForpH/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFCE331-13A3-6745-A333-8CC8B0DC1727}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3ECBD79-BE92-7D4D-B071-3FD93801387E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{1707C2BD-F3DD-4545-A724-5165183D0756}"/>
   </bookViews>
@@ -1495,11 +1495,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7285D72A-7544-A343-94E7-5AD5B969EAD4}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
